--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619431.4909928647</v>
+        <v>616993.1010344481</v>
       </c>
     </row>
     <row r="7">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>341.0590342084178</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>83.09405498755962</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>45.0203212139365</v>
+        <v>254.5167172826895</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.2205257453323</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.75324835359618</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>38.54479897546789</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>315.996888278755</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>44.42291630961092</v>
+        <v>1.64230657388322</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6.686682526454732</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>223.097775381403</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>139.3948594558967</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.391515483393</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1424,7 +1424,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>200.6173698503566</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>81.37259901119253</v>
       </c>
       <c r="F13" t="n">
-        <v>15.36445774807542</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>24.83266606352896</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>129.1078928223806</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465739</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.5813113004301</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986293</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>106.1798850986031</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>99.9742741983416</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>113.6427030833188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890341</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G31" t="n">
-        <v>93.40444476188181</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>103.1686991936211</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012035</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880071</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717217</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1566.029558296119</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1197.067041355707</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>838.8013427489567</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>453.0130901507125</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2988.141956006682</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2635.373300736568</v>
       </c>
       <c r="X2" t="n">
-        <v>2342.768730336053</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.629398360241</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4422,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.710820256795</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>333.710820256795</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>333.710820256795</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983425</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X4" t="n">
-        <v>554.5033994003252</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="Y4" t="n">
-        <v>333.710820256795</v>
+        <v>370.014486981638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1530.167618932618</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3286.671681229909</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3286.671681229909</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3033.141204503745</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3033.141204503745</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2680.372549233631</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2306.906790972551</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1916.76745899674</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1371.553433147692</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>1082.136263110731</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.136263110731</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.3436839672011</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116517</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
         <v>1320.35562273557</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5039,10 +5039,10 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
         <v>1461.457663018651</v>
@@ -5054,10 +5054,10 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.49737412729</v>
@@ -5072,19 +5072,19 @@
         <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>791.7848371185818</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1383.80319137071</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>2005.899154770046</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>677.2291802831428</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>508.2929973552359</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>358.1763579429002</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>358.1763579429002</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F13" t="n">
-        <v>342.6567036519149</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
         <v>92.81162322608056</v>
@@ -5224,25 +5224,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2140.837647083051</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1851.761433397778</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1597.076945191891</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1307.65977515493</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1079.670224256913</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>858.8776451133825</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>383.4415877881717</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797186</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2337.284991357604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.683526380545</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.608299724743</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3584617859326</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2418223735968</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708888</v>
+        <v>513.8536007400747</v>
       </c>
       <c r="C28" t="n">
-        <v>484.811296842982</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="D28" t="n">
-        <v>484.811296842982</v>
+        <v>194.8007783998321</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679637</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642676</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744659</v>
+        <v>916.2946447138446</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011286</v>
+        <v>695.5020655703145</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876679</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>411.963121559761</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>411.963121559761</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>411.963121559761</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F31" t="n">
-        <v>411.963121559761</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179076</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,46 +6692,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>65.81701153329365</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.6582034825753</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>46.61145443660504</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613728996</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>50.29152613728974</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537664</v>
       </c>
       <c r="F13" t="n">
-        <v>130.0565902748558</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.4141550350989</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019583179</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462286</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.44497470121448</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>40.25407754796611</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822757</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>138.4949402405093</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038704</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>45.4467738245913</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>950277.9884610452</v>
+        <v>950277.9884610451</v>
       </c>
     </row>
     <row r="3">
@@ -26314,13 +26314,13 @@
         <v>375475.6212503243</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321414</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190153</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
         <v>403573.2998450031</v>
@@ -26329,25 +26329,25 @@
         <v>403573.299845003</v>
       </c>
       <c r="H2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="I2" t="n">
         <v>403573.299845003</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="K2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="L2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="M2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="J2" t="n">
-        <v>403573.299845003</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="L2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="M2" t="n">
-        <v>403573.2998450032</v>
-      </c>
-      <c r="N2" t="n">
-        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.610093858194886e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>313680.0588189856</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504109</v>
+        <v>11452.26311504103</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832936</v>
+        <v>81924.2786383293</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704674</v>
+        <v>3077.017355704562</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51568.5896247961</v>
+        <v>51568.58962479611</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.95495316941</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316945</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91573.95495316944</v>
       </c>
       <c r="E4" t="n">
         <v>12380.38756059278</v>
@@ -26445,7 +26445,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1112771.654663458</v>
+        <v>-1112946.880981866</v>
       </c>
       <c r="C6" t="n">
-        <v>211012.9894175787</v>
+        <v>211012.9894175784</v>
       </c>
       <c r="D6" t="n">
         <v>211012.9894175789</v>
       </c>
       <c r="E6" t="n">
-        <v>-24862.68907440153</v>
+        <v>-24908.59406996698</v>
       </c>
       <c r="F6" t="n">
-        <v>278611.5867242368</v>
+        <v>278576.8487988011</v>
       </c>
       <c r="G6" t="n">
-        <v>290063.8498392778</v>
+        <v>290029.1119138421</v>
       </c>
       <c r="H6" t="n">
-        <v>290063.8498392777</v>
+        <v>290029.1119138421</v>
       </c>
       <c r="I6" t="n">
-        <v>290063.8498392778</v>
+        <v>290029.111913842</v>
       </c>
       <c r="J6" t="n">
-        <v>72532.64744200029</v>
+        <v>72497.90951656434</v>
       </c>
       <c r="K6" t="n">
-        <v>290063.8498392779</v>
+        <v>290029.1119138419</v>
       </c>
       <c r="L6" t="n">
-        <v>290063.8498392778</v>
+        <v>290029.111913842</v>
       </c>
       <c r="M6" t="n">
-        <v>208139.5712009486</v>
+        <v>208104.8332755128</v>
       </c>
       <c r="N6" t="n">
-        <v>286986.8324835732</v>
+        <v>286952.0945581376</v>
       </c>
       <c r="O6" t="n">
-        <v>290063.8498392778</v>
+        <v>290029.1119138421</v>
       </c>
       <c r="P6" t="n">
-        <v>290063.8498392778</v>
+        <v>290029.1119138421</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>328.7438349237143</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237145</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364097</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>324.7107794645325</v>
+        <v>115.2143833957796</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>123.680714292973</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>70.64296281270794</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>70.24105037729862</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>207.7147270142171</v>
+        <v>250.4953367499448</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>358.5862092445528</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.14319333601</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>147.1281388806943</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-2.788709462066248e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31844,10 +31844,10 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>361.6013389488605</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927639</v>
@@ -31859,10 +31859,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32078,28 +32078,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250656</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471796</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>614.7544723218302</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35492,10 +35492,10 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>223.0469591689863</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094306</v>
@@ -35507,10 +35507,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>128.8146617507066</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096338</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
